--- a/regions/11/mretsveloba/mretsveloba.xlsx
+++ b/regions/11/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -129,7 +129,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="204"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
     <col min="1" max="1" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -543,7 +543,7 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -590,8 +590,14 @@
       <c r="P2" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q2" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -640,8 +646,14 @@
       <c r="P3" s="8">
         <v>954.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="8">
+        <v>1263.3</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1618.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -690,8 +702,14 @@
       <c r="P4" s="8">
         <v>960.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="8">
+        <v>1249.0999999999999</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1616.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -740,8 +758,14 @@
       <c r="P5" s="10">
         <v>5006</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="10">
+        <v>5155</v>
+      </c>
+      <c r="R5" s="10">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -790,8 +814,14 @@
       <c r="P6" s="10">
         <v>4804</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="10">
+        <v>5026</v>
+      </c>
+      <c r="R6" s="10">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -840,8 +870,14 @@
       <c r="P7" s="8">
         <v>1796.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="8">
+        <v>1836.7</v>
+      </c>
+      <c r="R7" s="8">
+        <v>2110.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -890,8 +926,14 @@
       <c r="P8" s="8">
         <v>659.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="8">
+        <v>875.8</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1142.9000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -940,8 +982,14 @@
       <c r="P9" s="8">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="8">
+        <v>115.6</v>
+      </c>
+      <c r="R9" s="8">
+        <v>141.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1038,14 @@
       <c r="P10" s="8">
         <v>300.89999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="8">
+        <v>373.2</v>
+      </c>
+      <c r="R10" s="8">
+        <v>473.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1040,8 +1094,14 @@
       <c r="P11" s="8">
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="8">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="R11" s="8">
+        <v>128.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1090,8 +1150,14 @@
       <c r="P12" s="8">
         <v>675.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="8">
+        <v>881.6</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1171.5999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1107,7 +1173,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1123,7 +1189,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>

--- a/regions/11/mretsveloba/mretsveloba.xlsx
+++ b/regions/11/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
     <col min="1" max="1" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -543,7 +543,7 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4">
         <v>2006</v>
@@ -596,8 +596,11 @@
       <c r="R2" s="5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S2" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -652,8 +655,11 @@
       <c r="R3" s="8">
         <v>1618.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S3" s="8">
+        <v>1765.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -708,8 +714,11 @@
       <c r="R4" s="8">
         <v>1616.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="8">
+        <v>1774.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -764,8 +773,11 @@
       <c r="R5" s="10">
         <v>5600</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S5" s="10">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -820,8 +832,11 @@
       <c r="R6" s="10">
         <v>5532</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S6" s="10">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -876,8 +891,11 @@
       <c r="R7" s="8">
         <v>2110.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="8">
+        <v>2416.1999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -932,8 +950,11 @@
       <c r="R8" s="8">
         <v>1142.9000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S8" s="8">
+        <v>1201.9000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1009,11 @@
       <c r="R9" s="8">
         <v>141.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S9" s="8">
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -1044,8 +1068,11 @@
       <c r="R10" s="8">
         <v>473.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S10" s="8">
+        <v>572.79999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1100,8 +1127,11 @@
       <c r="R11" s="8">
         <v>128.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S11" s="8">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1156,8 +1186,11 @@
       <c r="R12" s="8">
         <v>1171.5999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="8">
+        <v>1167.4000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1173,7 +1206,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1189,7 +1222,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
